--- a/data/trans_orig/P6501-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE493C2-D407-4D1E-8815-EC8BA073B501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D9543A-F3CC-4E63-B077-432A7DD22445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9EE3EDA-BAD7-4875-BFF4-A1A41ADFA139}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC718C91-068A-46C8-A32C-C5F380183ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>34,29%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>31,71%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>29,91%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,08%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,7 +164,7 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>0%</t>
@@ -176,7 +176,7 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>10,11%</t>
+    <t>9,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,88 +188,91 @@
     <t>46,98%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,19%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>2,27%</t>
@@ -278,7 +281,7 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,17%</t>
   </si>
   <si>
     <t>3,08%</t>
@@ -287,7 +290,7 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -296,424 +299,418 @@
     <t>56,45%</t>
   </si>
   <si>
-    <t>52,18%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D67FD8C-57BA-4F4D-B9C7-B4809B9D95B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1EEB10-EFFB-4C62-8578-62B9EC3EF81A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1596,7 +1593,7 @@
         <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1608,13 @@
         <v>94328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1626,13 +1623,13 @@
         <v>6574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -1641,13 +1638,13 @@
         <v>100902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1659,13 @@
         <v>11126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1677,13 +1674,13 @@
         <v>3003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1692,13 +1689,13 @@
         <v>14129</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1751,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1763,13 @@
         <v>314929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -1781,13 +1778,13 @@
         <v>222373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -1796,13 +1793,13 @@
         <v>537302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1814,13 @@
         <v>109175</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -1832,13 +1829,13 @@
         <v>29185</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>126</v>
@@ -1847,13 +1844,13 @@
         <v>138359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1865,13 @@
         <v>85391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1883,13 +1880,13 @@
         <v>8081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -1898,13 +1895,13 @@
         <v>93472</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1916,13 @@
         <v>48404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1934,13 +1931,13 @@
         <v>8087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -1949,10 +1946,10 @@
         <v>56491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>119</v>
@@ -2352,7 +2349,7 @@
         <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -2361,13 +2358,13 @@
         <v>108091</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2379,13 @@
         <v>87215</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2397,13 +2394,13 @@
         <v>4185</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -2412,13 +2409,13 @@
         <v>91400</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2430,13 @@
         <v>41566</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2448,13 +2445,13 @@
         <v>3011</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>47</v>
@@ -2463,13 +2460,13 @@
         <v>44577</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2534,13 @@
         <v>1062119</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>838</v>
@@ -2552,13 +2549,13 @@
         <v>878236</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>1848</v>
@@ -2567,13 +2564,13 @@
         <v>1940355</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2585,13 @@
         <v>349046</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2603,13 +2600,13 @@
         <v>104112</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>437</v>
@@ -2618,13 +2615,13 @@
         <v>453159</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2636,13 @@
         <v>348366</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -2654,13 +2651,13 @@
         <v>22928</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>358</v>
@@ -2669,13 +2666,13 @@
         <v>371294</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,7 +2723,7 @@
         <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2779,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D9543A-F3CC-4E63-B077-432A7DD22445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620C10D5-18F5-4708-AF7F-2271A5D9C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC718C91-068A-46C8-A32C-C5F380183ABF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{252B4862-15C0-443E-A5BC-6511E31F53E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>34,29%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>31,71%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>29,91%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -146,16 +146,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,7 +164,7 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>0%</t>
@@ -176,19 +176,19 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>9,59%</t>
+    <t>8,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
-    <t>41,64%</t>
+    <t>41,11%</t>
   </si>
   <si>
     <t>52,55%</t>
@@ -197,298 +197,301 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>56,41%</t>
   </si>
   <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>55,48%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>15,4%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -497,220 +500,223 @@
     <t>0,35%</t>
   </si>
   <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>6,11%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>3,22%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1EEB10-EFFB-4C62-8578-62B9EC3EF81A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261282BB-D3CD-4437-A748-FCD5C33F243E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1949,10 +1955,10 @@
         <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2020,13 +2026,13 @@
         <v>225478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>186</v>
@@ -2035,13 +2041,13 @@
         <v>186046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>389</v>
@@ -2050,13 +2056,13 @@
         <v>411524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>75116</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -2086,13 +2092,13 @@
         <v>20098</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -2101,13 +2107,13 @@
         <v>95214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2128,13 @@
         <v>64404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2137,13 +2143,13 @@
         <v>3218</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -2152,13 +2158,13 @@
         <v>67622</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2179,13 @@
         <v>41436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2188,13 +2194,13 @@
         <v>2652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -2203,13 +2209,13 @@
         <v>44088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2283,13 @@
         <v>348464</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>330</v>
@@ -2292,13 +2298,13 @@
         <v>350041</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -2307,13 +2313,13 @@
         <v>698505</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2334,13 @@
         <v>78662</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2343,13 +2349,13 @@
         <v>29429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -2358,13 +2364,13 @@
         <v>108091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2385,13 @@
         <v>87215</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2394,13 +2400,13 @@
         <v>4185</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -2409,13 +2415,13 @@
         <v>91400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2436,13 @@
         <v>41566</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2445,13 +2451,13 @@
         <v>3011</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>47</v>
@@ -2460,13 +2466,13 @@
         <v>44577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2540,13 @@
         <v>1062119</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>838</v>
@@ -2549,13 +2555,13 @@
         <v>878236</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>1848</v>
@@ -2564,13 +2570,13 @@
         <v>1940355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2591,13 @@
         <v>349046</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2600,13 +2606,13 @@
         <v>104112</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>437</v>
@@ -2615,13 +2621,13 @@
         <v>453159</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>348366</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -2651,13 +2657,13 @@
         <v>22928</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>358</v>
@@ -2666,13 +2672,13 @@
         <v>371294</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>144858</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -2702,13 +2708,13 @@
         <v>16753</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>158</v>
@@ -2717,13 +2723,13 @@
         <v>161611</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620C10D5-18F5-4708-AF7F-2271A5D9C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA87B89-DDBE-4562-B59E-753D0C01DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{252B4862-15C0-443E-A5BC-6511E31F53E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7517C4B1-9EF6-4833-BFE4-7868AC8E090C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,580 +74,580 @@
     <t>34,29%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>61,11%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>30,87%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
   </si>
   <si>
     <t>53,45%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>58,16%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,49%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -656,67 +656,64 @@
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>3,22%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261282BB-D3CD-4437-A748-FCD5C33F243E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02154F86-7458-4719-966D-A711AE2BC57E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,7 +1596,7 @@
         <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1611,13 @@
         <v>94328</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1629,13 +1626,13 @@
         <v>6574</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -1644,13 +1641,13 @@
         <v>100902</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1662,13 @@
         <v>11126</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -1680,13 +1677,13 @@
         <v>3003</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1695,13 +1692,13 @@
         <v>14129</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1754,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1766,13 @@
         <v>314929</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -1784,13 +1781,13 @@
         <v>222373</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>489</v>
@@ -1799,13 +1796,13 @@
         <v>537302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1817,13 @@
         <v>109175</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -1835,13 +1832,13 @@
         <v>29185</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>126</v>
@@ -1850,13 +1847,13 @@
         <v>138359</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1868,13 @@
         <v>85391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1886,13 +1883,13 @@
         <v>8081</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
@@ -1901,13 +1898,13 @@
         <v>93472</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1919,13 @@
         <v>48404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1937,13 +1934,13 @@
         <v>8087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -1952,13 +1949,13 @@
         <v>56491</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2023,13 @@
         <v>225478</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>186</v>
@@ -2041,13 +2038,13 @@
         <v>186046</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>389</v>
@@ -2056,13 +2053,13 @@
         <v>411524</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2074,13 @@
         <v>75116</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -2092,13 +2089,13 @@
         <v>20098</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -2107,13 +2104,13 @@
         <v>95214</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2125,13 @@
         <v>64404</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2143,13 +2140,13 @@
         <v>3218</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -2158,13 +2155,13 @@
         <v>67622</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2176,13 @@
         <v>41436</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2194,13 +2191,13 @@
         <v>2652</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -2209,13 +2206,13 @@
         <v>44088</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2280,13 @@
         <v>348464</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>330</v>
@@ -2298,13 +2295,13 @@
         <v>350041</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>689</v>
@@ -2313,13 +2310,13 @@
         <v>698505</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2331,13 @@
         <v>78662</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2349,13 +2346,13 @@
         <v>29429</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -2364,13 +2361,13 @@
         <v>108091</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2382,13 @@
         <v>87215</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2400,13 +2397,13 @@
         <v>4185</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -2415,13 +2412,13 @@
         <v>91400</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,10 +2433,10 @@
         <v>41566</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>187</v>
@@ -2454,7 +2451,7 @@
         <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>189</v>
@@ -2642,13 +2639,13 @@
         <v>348366</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>23</v>
@@ -2657,10 +2654,10 @@
         <v>22928</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>215</v>
@@ -2678,7 +2675,7 @@
         <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2690,13 @@
         <v>144858</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>17</v>
@@ -2708,13 +2705,13 @@
         <v>16753</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>158</v>
@@ -2723,13 +2720,13 @@
         <v>161611</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA87B89-DDBE-4562-B59E-753D0C01DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1038D5E-9806-425E-8890-366D3DEC5E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7517C4B1-9EF6-4833-BFE4-7868AC8E090C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{146A6904-9A8B-4351-9453-68BAED0AA73D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -65,231 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -398,7 +299,7 @@
     <t>8,76%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>55,48%</t>
@@ -1128,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02154F86-7458-4719-966D-A711AE2BC57E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B37E5AB-6EFA-499F-9D7D-D276DDBBB3AD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1246,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7">
-        <v>19521</v>
+        <v>173249</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>14429</v>
+        <v>119776</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="N4" s="7">
-        <v>33950</v>
+        <v>293025</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
-        <v>18053</v>
+        <v>86094</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>8313</v>
+        <v>25401</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N5" s="7">
-        <v>26366</v>
+        <v>111495</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>17028</v>
+        <v>111356</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>870</v>
+        <v>7444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1378,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="N6" s="7">
-        <v>17897</v>
+        <v>118800</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1399,49 +1300,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>2325</v>
+        <v>13451</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>2325</v>
+        <v>16454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,102 +1351,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>23612</v>
+        <v>155624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>519</v>
       </c>
       <c r="N8" s="7">
-        <v>80538</v>
+        <v>539774</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="D9" s="7">
-        <v>153728</v>
+        <v>314929</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>105347</v>
+        <v>222373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>247</v>
+        <v>489</v>
       </c>
       <c r="N9" s="7">
-        <v>259075</v>
+        <v>537302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,49 +1455,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>109175</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>29185</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="7">
-        <v>68041</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17088</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>85129</v>
+        <v>138359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1506,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>94328</v>
+        <v>85391</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>6574</v>
+        <v>8081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="N11" s="7">
-        <v>100902</v>
+        <v>93472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1557,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>11126</v>
+        <v>48404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>3003</v>
+        <v>8087</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>14129</v>
+        <v>56491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,102 +1608,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>557899</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>755</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>825625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="D14" s="7">
-        <v>314929</v>
+        <v>225478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="I14" s="7">
-        <v>222373</v>
+        <v>186046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="N14" s="7">
-        <v>537302</v>
+        <v>411524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,49 +1712,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7">
+        <v>75116</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="7">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7">
+        <v>20098</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="7">
-        <v>109175</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="7">
-        <v>26</v>
-      </c>
-      <c r="I15" s="7">
-        <v>29185</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>138359</v>
+        <v>95214</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,49 +1763,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>85391</v>
+        <v>64404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>8081</v>
+        <v>3218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>93472</v>
+        <v>67622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +1814,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>48404</v>
+        <v>41436</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>8087</v>
+        <v>2652</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>56491</v>
+        <v>44088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,102 +1865,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>506</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>557899</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>755</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>825625</v>
+        <v>618448</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>203</v>
+        <v>359</v>
       </c>
       <c r="D19" s="7">
-        <v>225478</v>
+        <v>348464</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="I19" s="7">
-        <v>186046</v>
+        <v>350041</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>389</v>
+        <v>689</v>
       </c>
       <c r="N19" s="7">
-        <v>411524</v>
+        <v>698505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,49 +1969,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7">
-        <v>75116</v>
+        <v>78662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>20098</v>
+        <v>29429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="N20" s="7">
-        <v>95214</v>
+        <v>108091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +2020,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D21" s="7">
-        <v>64404</v>
+        <v>87215</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>3218</v>
+        <v>4185</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="N21" s="7">
-        <v>67622</v>
+        <v>91400</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,49 +2071,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>41436</v>
+        <v>41566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2652</v>
+        <v>3011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N22" s="7">
-        <v>44088</v>
+        <v>44577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,102 +2122,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>555908</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="I23" s="7">
-        <v>212014</v>
+        <v>386665</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>940</v>
       </c>
       <c r="N23" s="7">
-        <v>618448</v>
+        <v>942573</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>359</v>
+        <v>1010</v>
       </c>
       <c r="D24" s="7">
-        <v>348464</v>
+        <v>1062119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>330</v>
+        <v>838</v>
       </c>
       <c r="I24" s="7">
-        <v>350041</v>
+        <v>878236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
-        <v>689</v>
+        <v>1848</v>
       </c>
       <c r="N24" s="7">
-        <v>698505</v>
+        <v>1940355</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="D25" s="7">
-        <v>78662</v>
+        <v>349046</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7">
-        <v>29429</v>
+        <v>104112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="N25" s="7">
-        <v>108091</v>
+        <v>453159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="D26" s="7">
-        <v>87215</v>
+        <v>348366</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="7">
+        <v>23</v>
+      </c>
+      <c r="I26" s="7">
+        <v>22928</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="7">
+        <v>358</v>
+      </c>
+      <c r="N26" s="7">
+        <v>371294</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4185</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M26" s="7">
-        <v>93</v>
-      </c>
-      <c r="N26" s="7">
-        <v>91400</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,40 +2328,40 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="D27" s="7">
-        <v>41566</v>
+        <v>144858</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>17</v>
+      </c>
+      <c r="I27" s="7">
+        <v>16753</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="7">
-        <v>3</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3011</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M27" s="7">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="N27" s="7">
-        <v>44577</v>
+        <v>161611</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>190</v>
@@ -2478,319 +2379,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>575</v>
+        <v>1823</v>
       </c>
       <c r="D28" s="7">
-        <v>555908</v>
+        <v>1904390</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>365</v>
+        <v>978</v>
       </c>
       <c r="I28" s="7">
-        <v>386665</v>
+        <v>1022029</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>940</v>
+        <v>2801</v>
       </c>
       <c r="N28" s="7">
-        <v>942573</v>
+        <v>2926419</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1010</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1062119</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="A29" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="7">
-        <v>838</v>
-      </c>
-      <c r="I29" s="7">
-        <v>878236</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1848</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1940355</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>337</v>
-      </c>
-      <c r="D30" s="7">
-        <v>349046</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
-      </c>
-      <c r="I30" s="7">
-        <v>104112</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M30" s="7">
-        <v>437</v>
-      </c>
-      <c r="N30" s="7">
-        <v>453159</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>335</v>
-      </c>
-      <c r="D31" s="7">
-        <v>348366</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>23</v>
-      </c>
-      <c r="I31" s="7">
-        <v>22928</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="7">
-        <v>358</v>
-      </c>
-      <c r="N31" s="7">
-        <v>371294</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>141</v>
-      </c>
-      <c r="D32" s="7">
-        <v>144858</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="7">
-        <v>17</v>
-      </c>
-      <c r="I32" s="7">
-        <v>16753</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M32" s="7">
-        <v>158</v>
-      </c>
-      <c r="N32" s="7">
-        <v>161611</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1823</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1904390</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="7">
-        <v>978</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1022029</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2801</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2926419</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>226</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
